--- a/IT_Oggetti_ONEToyota_20220701_VP.xlsx
+++ b/IT_Oggetti_ONEToyota_20220701_VP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quintegia.sharepoint.com/sites/Q-IT/Documenti condivisi/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1422" documentId="8_{D5774EE5-0C35-4772-94E1-4D2F116B28E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDC029E9-3952-4B3B-80EF-20D57D1A8DD8}"/>
+  <xr:revisionPtr revIDLastSave="1550" documentId="8_{D5774EE5-0C35-4772-94E1-4D2F116B28E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB448087-F340-4936-83B2-07C0FF746F86}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{6C307742-33E1-423F-AC73-18CEDED22199}"/>
+    <workbookView xWindow="4815" yWindow="16080" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="8" xr2:uid="{6C307742-33E1-423F-AC73-18CEDED22199}"/>
   </bookViews>
   <sheets>
     <sheet name="Oggetti" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="584">
   <si>
     <t>App</t>
   </si>
@@ -1508,9 +1508,6 @@
     <t>Raggruppamento__r.Gruppo__r.Name</t>
   </si>
   <si>
-    <t>Field Name</t>
-  </si>
-  <si>
     <t>Data Type</t>
   </si>
   <si>
@@ -1559,9 +1556,6 @@
     <t>Ordine Risultati Dealer Raggruppamento</t>
   </si>
   <si>
-    <t xml:space="preserve">	Ordine_Risultati_Dealer_Raggruppamento__c</t>
-  </si>
-  <si>
     <t>Formula (Number)</t>
   </si>
   <si>
@@ -1596,6 +1590,222 @@
   </si>
   <si>
     <t>Gruppo_Domanda__c</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>ONEToyota</t>
+  </si>
+  <si>
+    <t>Articoli_visualizzazioni_e_like.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Copia_di_ONEToyota_TL_DashInsig_9FF.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Marchi_Utenti_Gruppi_Con_Utenti_Custom_SQp.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Accessi_Dealer_xMa.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Accessi_lsM.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Accessi_Manager_UW0.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Accessi_Manager_X_GG_nyp.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Accessi_tutti_M1P.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_BRiT_Lexus_Agosto_2021_QYb.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_BRiT_Lexus_Giugno_2021_ebe.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_BRiT_Lexus.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_BRiT_Results_v1.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_BRiT_Toyota_Agosto_9iG.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_BRiT_Toyota_Giugno_2021_Q4g.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_BRiT_Toyota.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Commenti_per_Dealer_Toyota_zhD.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Lexus_Business_con_Casa_1Qf.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Lexus_Commenti_kBc.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Lexus_Dealer_Motivation_91o.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Lexus_Risultati_54G.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Risposte_Dealel_NIZ.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Risultati_per_Dealer_Lexus_hvD.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Risultati_per_Dealer_Toyota.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_solo_TMI_Risultati_w8W.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_TMI_Commenti_dSn.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_TMI_DashInsig_ZLo.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Toyota_Business_con_Casa_Cq3.report-meta.xml</t>
+  </si>
+  <si>
+    <t>ONEToyota_Toyota_Dealer_Motivation_qQh.report-meta.xml</t>
+  </si>
+  <si>
+    <t>OneToyota_Utenti_Gruppi.report-meta.xml</t>
+  </si>
+  <si>
+    <t>TMI_P4O.report-meta.xml</t>
+  </si>
+  <si>
+    <t>TMI_RCC_Accessi_Utente_Eno.report-meta.xml</t>
+  </si>
+  <si>
+    <t>TMI_RCC_Accessi_Utente_per_Giorno_x2A.report-meta.xml</t>
+  </si>
+  <si>
+    <t>TMI_RCC_Per_Giorno_Accessi_Utente_kpr.report-meta.xml</t>
+  </si>
+  <si>
+    <t>TMI_RCC_Risposte_Domande_Toyota_mI9.report-meta.xml</t>
+  </si>
+  <si>
+    <t>TMI_RCC_Risposte_Indici_Toyota.report-meta.xml</t>
+  </si>
+  <si>
+    <t>TMI_RCC_Utenti_Custom_per_Gruppo.report-meta.xml</t>
+  </si>
+  <si>
+    <t>TMI_RCC_X_Giorno_Accessi_Utente_NonCon_bQc.report-meta.xml</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>Nome File</t>
+  </si>
+  <si>
+    <t>Nome Report</t>
+  </si>
+  <si>
+    <t>Esclusiva ONEToyota</t>
+  </si>
+  <si>
+    <t>Report Types</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Report Type Filename</t>
+  </si>
+  <si>
+    <t>Report Type Name</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>BRiT_Risultati_con_KPI_e_Aree.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>Risposte_Domande_Raggruppamenti.reportType-meta.xml</t>
+  </si>
+  <si>
+    <t>Ordine_Risultati_Dealer_Raggruppamento__c</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>znimmaslIsvbqUtBfPgaVGPAOmYRRS.dashboard-meta.xml</t>
+  </si>
+  <si>
+    <t>TMIRCC</t>
+  </si>
+  <si>
+    <t>Nome Dashboard</t>
+  </si>
+  <si>
+    <t>EqCdYWeVsJewixTiKhlDTAkKPWBnWk.dashboard-meta.xml</t>
+  </si>
+  <si>
+    <t>RCCModelsTest</t>
+  </si>
+  <si>
+    <t>RCCModelsTest.cls</t>
+  </si>
+  <si>
+    <t>Utente_Lexus__c</t>
+  </si>
+  <si>
+    <t>Utente Lexus</t>
+  </si>
+  <si>
+    <t>Utente__r.Lexus__c</t>
+  </si>
+  <si>
+    <t>Formula (Checkbox)</t>
+  </si>
+  <si>
+    <t>Non_Considerare_Analisi_Utente__c</t>
+  </si>
+  <si>
+    <t>Non Considerare Analisi Utente</t>
+  </si>
+  <si>
+    <t>Field Label</t>
+  </si>
+  <si>
+    <t>Utente__r.Non_Considerare_Analisi__c</t>
+  </si>
+  <si>
+    <t>Utente_Toyota__c</t>
+  </si>
+  <si>
+    <t>Utente Toyota</t>
+  </si>
+  <si>
+    <t>Utente__r.Toyota__c</t>
+  </si>
+  <si>
+    <t>RS_Nome_Cognome_Utente__c</t>
+  </si>
+  <si>
+    <t>RS Nome Cognome Utente</t>
+  </si>
+  <si>
+    <t>Utente__r.Nome_Commerciale__c + " - " + Utente__r.Nome__c + " " + Utente__r.Cognome__c</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1815,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Vero&quot;;&quot;Vero&quot;;&quot;Falso&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1637,6 +1847,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1720,7 +1937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1747,47 +1964,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Vero&quot;;&quot;Vero&quot;;&quot;Falso&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1826,6 +2011,43 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Vero&quot;;&quot;Vero&quot;;&quot;Falso&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2172,20 +2394,23 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{06269845-6DC2-470F-9B94-7B6E6DC32649}" name="API Name"/>
     <tableColumn id="2" xr3:uid="{20F239E2-5C6D-4D80-A854-D769386C633F}" name="Voce Menu"/>
-    <tableColumn id="3" xr3:uid="{2BF0164E-CB41-4E55-835B-6BED83230012}" name="Univoco ONEToyota" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{2BF0164E-CB41-4E55-835B-6BED83230012}" name="Univoco ONEToyota" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{99ECC073-315E-4A40-9B53-F8F57FFB7A75}" name="Tabella12" displayName="Tabella12" ref="F6:I33" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{99ECC073-315E-4A40-9B53-F8F57FFB7A75}" name="Tabella12" displayName="Tabella12" ref="F6:I33" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="F6:I33" xr:uid="{99ECC073-315E-4A40-9B53-F8F57FFB7A75}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F7:I33">
+    <sortCondition ref="F6:F33"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AFBE2DBA-A5B8-45A5-B9BC-82606A961A8A}" name="API Name" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{73E82FAE-6A3D-49D8-9F68-B0678F09B525}" name="Voce Menu" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{248A5659-EA35-433F-BF87-1546DE097301}" name="Univoco ONEToyota" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8611E32B-ED9B-4EC7-9BE3-971B399F9768}" name="Organizzazione" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AFBE2DBA-A5B8-45A5-B9BC-82606A961A8A}" name="API Name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{73E82FAE-6A3D-49D8-9F68-B0678F09B525}" name="Voce Menu" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{248A5659-EA35-433F-BF87-1546DE097301}" name="Univoco ONEToyota" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8611E32B-ED9B-4EC7-9BE3-971B399F9768}" name="Organizzazione" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2205,15 +2430,58 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{61FDC0E6-4444-4BBE-9DB5-696354F8CA40}" name="Tabella4" displayName="Tabella4" ref="K6:P17" totalsRowShown="0" dataCellStyle="Normale">
-  <autoFilter ref="K6:P17" xr:uid="{61FDC0E6-4444-4BBE-9DB5-696354F8CA40}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{61FDC0E6-4444-4BBE-9DB5-696354F8CA40}" name="Tabella4" displayName="Tabella4" ref="K6:P21" totalsRowShown="0" dataCellStyle="Normale">
+  <autoFilter ref="K6:P21" xr:uid="{61FDC0E6-4444-4BBE-9DB5-696354F8CA40}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{36F28903-28F4-4594-9232-44B0B20ABF98}" name="API Name Oggetto" dataCellStyle="Normale"/>
-    <tableColumn id="2" xr3:uid="{4A05BB9E-80AF-4C88-916E-396C413421A5}" name="Field Name" dataCellStyle="Normale"/>
+    <tableColumn id="2" xr3:uid="{4A05BB9E-80AF-4C88-916E-396C413421A5}" name="Field Label" dataCellStyle="Normale"/>
     <tableColumn id="3" xr3:uid="{61EB41F8-98F3-40C9-AD2A-5EA2B3A51570}" name="API Name" dataCellStyle="Normale"/>
     <tableColumn id="4" xr3:uid="{0FF5D1F6-C150-43D0-BF55-EF52224EF996}" name="Data Type" dataCellStyle="Normale"/>
     <tableColumn id="5" xr3:uid="{75CF69D9-A8CB-440A-BA87-3C8803281F54}" name="Formula" dataCellStyle="Normale"/>
     <tableColumn id="6" xr3:uid="{178D617B-237D-4F33-9398-31441A594C6C}" name="Organizzazione" dataCellStyle="Normale"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{607C60E8-791D-4BDC-A3DD-D3C4686F4DAA}" name="Tabella15" displayName="Tabella15" ref="K24:N61" totalsRowShown="0">
+  <autoFilter ref="K24:N61" xr:uid="{607C60E8-791D-4BDC-A3DD-D3C4686F4DAA}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{12CEC3A6-F535-489F-A823-523C404CE2D8}" name="Directory"/>
+    <tableColumn id="2" xr3:uid="{14E2D77B-A23F-4076-B2E8-8E724E0BDB6F}" name="Nome File"/>
+    <tableColumn id="3" xr3:uid="{2CA30CEC-D109-4463-ACFF-C9256222306B}" name="Nome Report">
+      <calculatedColumnFormula>SUBSTITUTE(L25,".report-meta.xml","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DEFCDE09-A846-49DD-8DCC-80C7FD328CAA}" name="Esclusiva ONEToyota"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{964F05DB-B06C-4124-8FB5-9B353C90673D}" name="Tabella16" displayName="Tabella16" ref="K64:M66" totalsRowShown="0">
+  <autoFilter ref="K64:M66" xr:uid="{964F05DB-B06C-4124-8FB5-9B353C90673D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8AC3CC7F-C6D8-48F2-B1B2-96508D991DC4}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{5575CC66-8541-4D52-BCE4-737E8A492D75}" name="Report Type Filename"/>
+    <tableColumn id="3" xr3:uid="{A8AE6B22-25B1-4F0B-BFB7-7E018A404576}" name="Report Type Name">
+      <calculatedColumnFormula>SUBSTITUTE(L65,".reportType-meta.xml","")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{F75B5DCE-35BA-4A90-BAAD-EF14C62952FB}" name="Tabella17" displayName="Tabella17" ref="K69:M71" totalsRowShown="0">
+  <autoFilter ref="K69:M71" xr:uid="{F75B5DCE-35BA-4A90-BAAD-EF14C62952FB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7F82F4BA-0737-4056-84D0-1FA392D5A4EA}" name="Directory"/>
+    <tableColumn id="2" xr3:uid="{C2216204-A387-41AB-A4BF-3788E5EFDD0A}" name="Nome File"/>
+    <tableColumn id="3" xr3:uid="{100FF70A-56BB-4E1A-8294-BC3D0ADC7AE6}" name="Nome Dashboard" dataDxfId="0">
+      <calculatedColumnFormula>SUBSTITUTE(L70,".dashboard-meta.xml","")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2251,7 +2519,7 @@
     <tableColumn id="3" xr3:uid="{83B55A2D-14C4-4A5A-9089-BDAABBCB3D4C}" name="Nome Classe di Test"/>
     <tableColumn id="4" xr3:uid="{44C03CE4-A533-49A8-8E96-B51C2D3D76AF}" name="File Classe di Test"/>
     <tableColumn id="5" xr3:uid="{3D98FA9A-6A6C-41EB-9C8E-2738C96C5162}" name="URL Mapping"/>
-    <tableColumn id="8" xr3:uid="{881A211A-9435-4E68-ABF4-59E423DC46DE}" name="Promisqua" dataDxfId="21">
+    <tableColumn id="8" xr3:uid="{881A211A-9435-4E68-ABF4-59E423DC46DE}" name="Promisqua" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP(Tabella5[[#This Row],[Nome Classe]],'Classi x Oggetti'!$B$2:$G$142,'Classi x Oggetti'!G2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2316,18 +2584,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CF2B89B-D2C0-494A-AC20-9E61FD206B32}" name="Entrypoints_table" displayName="Entrypoints_table" ref="A1:E23" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2CF2B89B-D2C0-494A-AC20-9E61FD206B32}" name="Entrypoints_table" displayName="Entrypoints_table" ref="A1:E23" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E23" xr:uid="{2CF2B89B-D2C0-494A-AC20-9E61FD206B32}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D24C211C-33DD-45F2-BFE0-045D07707A75}" name="Nome" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{AB9328E7-B55E-4B9E-87A7-8EADA7551549}" name="API" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{C12E19A1-94C9-4399-BAF6-4B589B8D03AB}" name="Trovato" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{D24C211C-33DD-45F2-BFE0-045D07707A75}" name="Nome" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{AB9328E7-B55E-4B9E-87A7-8EADA7551549}" name="API" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{C12E19A1-94C9-4399-BAF6-4B589B8D03AB}" name="Trovato" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(Entrypoints_table[[#This Row],[API]],'Classi x Oggetti'!$F$2:$F$142,1,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7D300F1D-84F0-48AE-A4D3-4AE0A78C312D}" name="TrovatoDerivate" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{7D300F1D-84F0-48AE-A4D3-4AE0A78C312D}" name="TrovatoDerivate" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(Entrypoints_table[[#This Row],[API]],'Classi Derivate'!$F$2:$F$46,1,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{41A98614-1B7F-4521-8ABC-6CF0AB099128}" name="Gestione Terzi" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{41A98614-1B7F-4521-8ABC-6CF0AB099128}" name="Gestione Terzi" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2340,30 +2608,30 @@
     <sortCondition ref="A1:A101"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{44448DA1-CA09-484C-92BF-3BBF8FD7C471}" uniqueName="1" name="Nome Classe" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{3BA62650-4AF5-44C7-8B1C-C45914B04C9B}" uniqueName="2" name="Errore" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{44448DA1-CA09-484C-92BF-3BBF8FD7C471}" uniqueName="1" name="Nome Classe" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{3BA62650-4AF5-44C7-8B1C-C45914B04C9B}" uniqueName="2" name="Errore" queryTableFieldId="2" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4AB6BA41-5733-4B52-BEEC-0603BD4CB7F0}" name="Tabella11" displayName="Tabella11" ref="A2:D71" totalsRowShown="0">
-  <autoFilter ref="A2:D71" xr:uid="{4AB6BA41-5733-4B52-BEEC-0603BD4CB7F0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4AB6BA41-5733-4B52-BEEC-0603BD4CB7F0}" name="Tabella11" displayName="Tabella11" ref="A2:D72" totalsRowShown="0">
+  <autoFilter ref="A2:D72" xr:uid="{4AB6BA41-5733-4B52-BEEC-0603BD4CB7F0}">
     <filterColumn colId="3">
       <filters>
         <filter val="#N/D"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D71">
-    <sortCondition ref="B2:B71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D72">
+    <sortCondition ref="A2:A72"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6FA39D3F-F566-4DD6-BF9D-AA75D785C912}" name="Nome Classe"/>
     <tableColumn id="2" xr3:uid="{C92E2418-0545-456A-A19A-2700C5B3B888}" name="File Classe"/>
     <tableColumn id="5" xr3:uid="{18C13E28-7A29-4C8D-B606-485A0101B7BB}" name="URL Mapping"/>
-    <tableColumn id="6" xr3:uid="{293E4005-FFAA-4733-8AE8-48EDC686FFD4}" name="Solo live" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{293E4005-FFAA-4733-8AE8-48EDC686FFD4}" name="Solo live" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11216,10 +11484,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26C33FD-BD3B-4907-949C-9103839BF1A5}">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11232,13 +11500,17 @@
     <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="90.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="62" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11357,16 +11629,16 @@
         <v>470</v>
       </c>
       <c r="K6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L6" t="s">
-        <v>484</v>
+        <v>576</v>
       </c>
       <c r="M6" t="s">
         <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O6" t="s">
         <v>474</v>
@@ -11402,19 +11674,19 @@
         <v>471</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="N7" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>471</v>
@@ -11444,20 +11716,22 @@
         <v>471</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="O8" s="4"/>
+        <v>502</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>572</v>
+      </c>
       <c r="P8" s="4" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -11484,22 +11758,22 @@
         <v>471</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>478</v>
+        <v>502</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>580</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -11524,22 +11798,22 @@
         <v>471</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>482</v>
+        <v>502</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>577</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -11566,22 +11840,22 @@
         <v>471</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="N11" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="N11" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>483</v>
+      <c r="O11" s="24" t="s">
+        <v>583</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -11611,19 +11885,21 @@
         <v>471</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -11652,16 +11928,16 @@
         <v>475</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>471</v>
@@ -11694,19 +11970,19 @@
         <v>475</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>481</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -11739,16 +12015,16 @@
         <v>475</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>481</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>471</v>
@@ -11784,17 +12060,15 @@
         <v>475</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>495</v>
+        <v>22</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>496</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="O16" s="4"/>
       <c r="P16" s="4" t="s">
         <v>471</v>
       </c>
@@ -11826,15 +12100,17 @@
         <v>475</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>33</v>
+        <v>562</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="O17" s="4"/>
+        <v>500</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>501</v>
+      </c>
       <c r="P17" s="4" t="s">
         <v>471</v>
       </c>
@@ -11850,15 +12126,33 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="14" t="b">
+      <c r="G18" s="18"/>
+      <c r="H18" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="19" t="s">
         <v>471</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -11884,6 +12178,24 @@
       <c r="I19" s="23" t="s">
         <v>471</v>
       </c>
+      <c r="K19" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -11908,7 +12220,25 @@
       <c r="H20" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>471</v>
       </c>
     </row>
@@ -11924,7 +12254,7 @@
         <v>#N/A</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="14" t="b">
@@ -11932,6 +12262,22 @@
       </c>
       <c r="I21" s="14" t="s">
         <v>472</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -11982,6 +12328,9 @@
       <c r="I23" s="22" t="s">
         <v>471</v>
       </c>
+      <c r="K23" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -12009,6 +12358,18 @@
       <c r="I24" s="23" t="s">
         <v>471</v>
       </c>
+      <c r="K24" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -12036,6 +12397,19 @@
       <c r="I25" s="22" t="s">
         <v>471</v>
       </c>
+      <c r="K25" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="M25" s="4" t="str">
+        <f t="shared" ref="M25:M61" si="0">SUBSTITUTE(L25,".report-meta.xml","")</f>
+        <v>Articoli_visualizzazioni_e_like</v>
+      </c>
+      <c r="N25" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -12063,6 +12437,19 @@
       <c r="I26" s="23" t="s">
         <v>471</v>
       </c>
+      <c r="K26" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="M26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Copia_di_ONEToyota_TL_DashInsig_9FF</v>
+      </c>
+      <c r="N26" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -12079,7 +12466,7 @@
         <v>#N/A</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="14" t="b">
@@ -12088,6 +12475,19 @@
       <c r="I27" s="14" t="s">
         <v>471</v>
       </c>
+      <c r="K27" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="M27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Marchi_Utenti_Gruppi_Con_Utenti_Custom_SQp</v>
+      </c>
+      <c r="N27" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -12101,16 +12501,27 @@
         <v>#N/A</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>4</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G28" s="18"/>
       <c r="H28" s="19" t="b">
         <v>1</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>471</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="M28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Accessi_Dealer_xMa</v>
+      </c>
+      <c r="N28" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -12124,17 +12535,30 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="15" t="b">
+      <c r="F29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="19" t="b">
         <v>1</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>471</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="M29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Accessi_lsM</v>
+      </c>
+      <c r="N29" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -12148,17 +12572,30 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="22" t="s">
+      <c r="F30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="23" t="s">
         <v>471</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="M30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Accessi_Manager_UW0</v>
+      </c>
+      <c r="N30" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -12172,17 +12609,30 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="15" t="b">
+      <c r="F31" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="19" t="b">
         <v>1</v>
       </c>
       <c r="I31" s="23" t="s">
         <v>471</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="M31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Accessi_Manager_X_GG_nyp</v>
+      </c>
+      <c r="N31" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -12199,18 +12649,33 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="M32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Accessi_tutti_M1P</v>
+      </c>
+      <c r="N32" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>460</v>
       </c>
@@ -12225,17 +12690,30 @@
         <v>#N/A</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>236</v>
+        <v>510</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I33" s="22" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="M33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_BRiT_Lexus_Agosto_2021_QYb</v>
+      </c>
+      <c r="N33" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>462</v>
       </c>
@@ -12249,8 +12727,21 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="M34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_BRiT_Lexus_Giugno_2021_ebe</v>
+      </c>
+      <c r="N34" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>463</v>
       </c>
@@ -12264,8 +12755,21 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="M35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_BRiT_Lexus</v>
+      </c>
+      <c r="N35" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -12279,8 +12783,21 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="M36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_BRiT_Results_v1</v>
+      </c>
+      <c r="N36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -12291,8 +12808,21 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="M37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_BRiT_Toyota_Agosto_9iG</v>
+      </c>
+      <c r="N37" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>189</v>
       </c>
@@ -12306,8 +12836,21 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="M38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_BRiT_Toyota_Giugno_2021_Q4g</v>
+      </c>
+      <c r="N38" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -12318,8 +12861,21 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="M39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_BRiT_Toyota</v>
+      </c>
+      <c r="N39" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>208</v>
       </c>
@@ -12330,8 +12886,21 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="M40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Commenti_per_Dealer_Toyota_zhD</v>
+      </c>
+      <c r="N40" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -12345,8 +12914,21 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="M41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Lexus_Business_con_Casa_1Qf</v>
+      </c>
+      <c r="N41" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -12357,8 +12939,21 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K42" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="M42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Lexus_Commenti_kBc</v>
+      </c>
+      <c r="N42" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -12372,8 +12967,21 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K43" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="M43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Lexus_Dealer_Motivation_91o</v>
+      </c>
+      <c r="N43" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -12384,8 +12992,21 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K44" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="M44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Lexus_Risultati_54G</v>
+      </c>
+      <c r="N44" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -12399,259 +13020,476 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K45" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="M45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Risposte_Dealel_NIZ</v>
+      </c>
+      <c r="N45" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>298</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" t="str">
+        <v>167</v>
+      </c>
+      <c r="D46" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
-        <v>RCCResources</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="M46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Risultati_per_Dealer_Lexus_hvD</v>
+      </c>
+      <c r="N46" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
       </c>
       <c r="D47" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K47" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="M47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Risultati_per_Dealer_Toyota</v>
+      </c>
+      <c r="N47" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="D48" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K48" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="M48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_solo_TMI_Risultati_w8W</v>
+      </c>
+      <c r="N48" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" t="str">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
-        <v>RESTAPI</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="M49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_TMI_Commenti_dSn</v>
+      </c>
+      <c r="N49" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D50" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K50" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="M50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_TMI_DashInsig_ZLo</v>
+      </c>
+      <c r="N50" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>454</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D51" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K51" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="M51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Toyota_Business_con_Casa_Cq3</v>
+      </c>
+      <c r="N51" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
       </c>
       <c r="D52" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="M52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>ONEToyota_Toyota_Dealer_Motivation_qQh</v>
+      </c>
+      <c r="N52" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="D53" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K53" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="M53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>OneToyota_Utenti_Gruppi</v>
+      </c>
+      <c r="N53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D54" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K54" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="M54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>TMI_P4O</v>
+      </c>
+      <c r="N54" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D55" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K55" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="M55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>TMI_RCC_Accessi_Utente_Eno</v>
+      </c>
+      <c r="N55" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D56" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K56" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="M56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>TMI_RCC_Accessi_Utente_per_Giorno_x2A</v>
+      </c>
+      <c r="N56" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>461</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>246</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
       </c>
       <c r="D57" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K57" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="M57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>TMI_RCC_Per_Giorno_Accessi_Utente_kpr</v>
+      </c>
+      <c r="N57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="D58" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K58" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="M58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>TMI_RCC_Risposte_Domande_Toyota_mI9</v>
+      </c>
+      <c r="N58" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>461</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s">
-        <v>246</v>
-      </c>
-      <c r="C59" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="D59" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K59" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="M59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>TMI_RCC_Risposte_Indici_Toyota</v>
+      </c>
+      <c r="N59" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>95</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
       </c>
       <c r="D60" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K60" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="M60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>TMI_RCC_Utenti_Custom_per_Gruppo</v>
+      </c>
+      <c r="N60" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="D61" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K61" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="M61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>TMI_RCC_X_Giorno_Accessi_Utente_NonCon_bQc</v>
+      </c>
+      <c r="N61" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>568</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" t="s">
-        <v>107</v>
+        <v>569</v>
       </c>
       <c r="D62" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" s="4" t="e">
+        <v>232</v>
+      </c>
+      <c r="C63" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="4" t="str">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>RCCResources</v>
+      </c>
+      <c r="K63" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>199</v>
       </c>
@@ -12662,8 +13500,17 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>556</v>
+      </c>
+      <c r="L64" t="s">
+        <v>557</v>
+      </c>
+      <c r="M64" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -12674,8 +13521,18 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>559</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="M65" s="4" t="str">
+        <f>SUBSTITUTE(L65,".reportType-meta.xml","")</f>
+        <v>BRiT_Risultati_con_KPI_e_Aree</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>180</v>
       </c>
@@ -12689,8 +13546,18 @@
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K66" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="L66" t="s">
+        <v>561</v>
+      </c>
+      <c r="M66" s="4" t="str">
+        <f>SUBSTITUTE(L66,".reportType-meta.xml","")</f>
+        <v>Risposte_Domande_Raggruppamenti</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -12702,65 +13569,123 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
+        <v>RESTAPI</v>
+      </c>
+      <c r="K68" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>172</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>58</v>
-      </c>
-      <c r="D68" s="4" t="e">
-        <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" t="s">
-        <v>71</v>
       </c>
       <c r="D69" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" t="s">
-        <v>201</v>
+      <c r="K69" t="s">
+        <v>551</v>
+      </c>
+      <c r="L69" t="s">
+        <v>552</v>
+      </c>
+      <c r="M69" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D70" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K70" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="L70" t="s">
+        <v>564</v>
+      </c>
+      <c r="M70" s="4" t="str">
+        <f t="shared" ref="M70:M71" si="1">SUBSTITUTE(L70,".dashboard-meta.xml","")</f>
+        <v>znimmaslIsvbqUtBfPgaVGPAOmYRRS</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="D71" s="4" t="e">
         <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
         <v>#N/A</v>
       </c>
+      <c r="K71" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="M71" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>EqCdYWeVsJewixTiKhlDTAkKPWBnWk</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="4" t="e">
+        <f>VLOOKUP(Tabella11[[#This Row],[Nome Classe]],not_found_classes[],1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
